--- a/data/trans_orig/IP07C26_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9E91919-B9D1-4A61-96A3-23B2B9F01B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A6557C-EE5D-4E1A-8F74-691A52551564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A994AAE3-9D1E-4362-A5D1-E4BF222B7E84}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F965E32-8913-43A2-9493-C7BDDD4119E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="158">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>35,35%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>63,68%</t>
   </si>
   <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>48,49%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>37,93%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
   </si>
   <si>
     <t>32,23%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>49,51%</t>
+    <t>48,45%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>21,17%</t>
+    <t>19,38%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -161,7 +161,7 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>27,93%</t>
+    <t>31,18%</t>
   </si>
   <si>
     <t>0%</t>
@@ -173,7 +173,7 @@
     <t>3,22%</t>
   </si>
   <si>
-    <t>16,49%</t>
+    <t>13,87%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -182,13 +182,13 @@
     <t>3,64%</t>
   </si>
   <si>
-    <t>16,74%</t>
+    <t>18,2%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>8,64%</t>
+    <t>11,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -200,94 +200,94 @@
     <t>50,84%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
   </si>
   <si>
     <t>49,38%</t>
   </si>
   <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
   </si>
   <si>
     <t>47,96%</t>
   </si>
   <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>1,03%</t>
@@ -296,7 +296,7 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -314,73 +314,73 @@
     <t>56,1%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>56,98%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
   </si>
   <si>
     <t>39,83%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>41,23%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>9,15%</t>
+    <t>7,79%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>12,2%</t>
+    <t>9,75%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>6,31%</t>
+    <t>6,05%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -395,79 +395,79 @@
     <t>50,95%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>50,7%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>38,97%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>41,69%</t>
   </si>
   <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -476,25 +476,28 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -503,7 +506,7 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -918,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4B8F75-4163-46ED-9FCB-0939206606B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8239BD98-45F0-4E5C-BEAC-530D53AE1B81}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2140,7 +2143,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2149,13 +2152,13 @@
         <v>4520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2173,13 @@
         <v>586</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2191,7 +2194,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2200,13 +2203,13 @@
         <v>586</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2265,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C26_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A6557C-EE5D-4E1A-8F74-691A52551564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C89F38-E137-49E2-B64F-E20340DE49CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F965E32-8913-43A2-9493-C7BDDD4119E8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0D9CAD57-5BE8-4FD2-8A73-B3E5C21197D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="158">
-  <si>
-    <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
+  <si>
+    <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,442 +71,466 @@
     <t>Siempre</t>
   </si>
   <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>17,08%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -921,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8239BD98-45F0-4E5C-BEAC-530D53AE1B81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3A5370-DFDF-4278-A444-6CBEFFBA78A4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1039,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>5689</v>
+        <v>5735</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1054,10 +1078,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>8858</v>
+        <v>5165</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1069,10 +1093,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>14548</v>
+        <v>10901</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1090,10 +1114,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>6104</v>
+        <v>3751</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1105,10 +1129,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>4483</v>
+        <v>8253</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1120,10 +1144,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>10587</v>
+        <v>12005</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1141,10 +1165,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>2748</v>
+        <v>2920</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1156,55 +1180,55 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>568</v>
+        <v>3336</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>3317</v>
+        <v>6256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1213,25 +1237,25 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>45</v>
@@ -1243,19 +1267,19 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1264,28 +1288,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,102 +1318,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>16093</v>
+        <v>12407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30003</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>100201</v>
+        <v>48171</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="7">
+        <v>93</v>
+      </c>
+      <c r="I10" s="7">
+        <v>93431</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>165</v>
+      </c>
+      <c r="N10" s="7">
+        <v>141602</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="7">
-        <v>94</v>
-      </c>
-      <c r="I10" s="7">
-        <v>70267</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="7">
-        <v>201</v>
-      </c>
-      <c r="N10" s="7">
-        <v>170468</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,49 +1422,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>75219</v>
+        <v>92039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>91</v>
       </c>
       <c r="I11" s="7">
-        <v>71030</v>
+        <v>78467</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="7">
+        <v>186</v>
+      </c>
+      <c r="N11" s="7">
+        <v>170506</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="7">
-        <v>175</v>
-      </c>
-      <c r="N11" s="7">
-        <v>146249</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,100 +1473,100 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>19277</v>
+        <v>17239</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="7">
+        <v>30</v>
+      </c>
+      <c r="I12" s="7">
+        <v>27638</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>55</v>
+      </c>
+      <c r="N12" s="7">
+        <v>44877</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5642</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="7">
-        <v>33</v>
-      </c>
-      <c r="N12" s="7">
-        <v>24919</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2405</v>
+        <v>1864</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1150</v>
+        <v>868</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2732</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3555</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,43 +1581,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2295</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2295</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,102 +1626,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M15" s="7">
         <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>29822</v>
+        <v>19646</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>42</v>
+      </c>
+      <c r="I16" s="7">
+        <v>32352</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="7">
-        <v>35</v>
-      </c>
-      <c r="I16" s="7">
-        <v>23575</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>73</v>
+      </c>
+      <c r="N16" s="7">
+        <v>51997</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="7">
-        <v>75</v>
-      </c>
-      <c r="N16" s="7">
-        <v>53397</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,49 +1730,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>22486</v>
+        <v>16543</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>16148</v>
+        <v>15369</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>43</v>
+      </c>
+      <c r="N17" s="7">
+        <v>31912</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="7">
-        <v>49</v>
-      </c>
-      <c r="N17" s="7">
-        <v>38634</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,46 +1781,46 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>852</v>
+        <v>1974</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2620</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>825</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>6</v>
+      </c>
+      <c r="N18" s="7">
+        <v>4593</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="7">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1677</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>114</v>
@@ -1805,52 +1829,52 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2353</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>2942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1880,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1895,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,49 +1934,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,49 +1987,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="D22" s="7">
-        <v>135712</v>
+        <v>73552</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I22" s="7">
-        <v>102700</v>
+        <v>130948</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="N22" s="7">
-        <v>238412</v>
+        <v>204500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>123</v>
+      </c>
+      <c r="D23" s="7">
+        <v>112333</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="7">
         <v>121</v>
       </c>
-      <c r="D23" s="7">
-        <v>103810</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="7">
-        <v>120</v>
-      </c>
       <c r="I23" s="7">
-        <v>91662</v>
+        <v>102090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N23" s="7">
-        <v>195471</v>
+        <v>214422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,100 +2089,100 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7">
-        <v>22878</v>
+        <v>22133</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I24" s="7">
-        <v>7035</v>
+        <v>33594</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N24" s="7">
-        <v>29912</v>
+        <v>55727</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3370</v>
+        <v>2454</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>1150</v>
+        <v>3221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>4520</v>
+        <v>5675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,49 +2191,49 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>586</v>
+        <v>2295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,54 +2242,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="D27" s="7">
-        <v>266356</v>
+        <v>210472</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H27" s="7">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M27" s="7">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N27" s="7">
-        <v>468901</v>
+        <v>482619</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
